--- a/config_debug/lottery_config_low.xlsx
+++ b/config_debug/lottery_config_low.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" tabRatio="690" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13605" tabRatio="690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main|幸运抽奖" sheetId="4" r:id="rId1"/>
@@ -647,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -939,7 +939,7 @@
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>2</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>2</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>2</v>

--- a/config_debug/lottery_config_low.xlsx
+++ b/config_debug/lottery_config_low.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>|备注</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -104,31 +104,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>shop_gold_sum</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_gold_sum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jing_bi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>jing_bi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>jing_bi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,14 +166,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF111F2C"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +178,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -230,7 +224,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -250,9 +244,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -721,7 +720,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A2" sqref="A2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -757,356 +756,356 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="8">
+        <v>600</v>
+      </c>
+      <c r="E2" s="8">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8">
+        <v>285</v>
+      </c>
+      <c r="E3" s="8">
+        <v>350000</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2400</v>
+      </c>
+      <c r="E4" s="8">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8">
+        <v>600</v>
+      </c>
+      <c r="E5" s="8">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8">
         <v>300</v>
       </c>
-      <c r="E2" s="3">
-        <v>24.999999999999996</v>
-      </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="7">
-        <v>250</v>
-      </c>
-      <c r="E3" s="3">
-        <v>200.00000000000003</v>
-      </c>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="E6" s="8">
+        <v>99930.000000000189</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="8">
+        <v>900</v>
+      </c>
+      <c r="E7" s="8">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="8">
+        <v>600</v>
+      </c>
+      <c r="E8" s="8">
+        <v>10</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8">
+        <v>300</v>
+      </c>
+      <c r="E9" s="8">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2400</v>
+      </c>
+      <c r="E10" s="8">
+        <v>10</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="8">
+        <v>255</v>
+      </c>
+      <c r="E11" s="8">
+        <v>550000</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="10">
+        <v>47500</v>
+      </c>
+      <c r="E12" s="10">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7">
-        <v>1500</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D13" s="10">
+        <v>10000000</v>
+      </c>
+      <c r="E13" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="E14" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="10">
+        <v>5000000</v>
+      </c>
+      <c r="E15" s="10">
+        <v>99930.000000000189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B16" s="9">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="10">
+        <v>100000</v>
+      </c>
+      <c r="E16" s="10">
+        <v>10</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="7">
-        <v>300</v>
-      </c>
-      <c r="E5" s="3">
-        <v>100.00000000000001</v>
-      </c>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D17" s="10">
+        <v>100000000</v>
+      </c>
+      <c r="E17" s="10">
+        <v>10</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="10">
+        <v>42500</v>
+      </c>
+      <c r="E18" s="10">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="7">
-        <v>250</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4998160</v>
-      </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="7">
-        <v>900</v>
-      </c>
-      <c r="E7" s="3">
-        <v>450</v>
-      </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D19" s="10">
+        <v>5000000</v>
+      </c>
+      <c r="E19" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="D8" s="7">
-        <v>300</v>
-      </c>
-      <c r="E8" s="3">
-        <v>425.00000000000006</v>
-      </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B20" s="9">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="7">
-        <v>250</v>
-      </c>
-      <c r="E9" s="3">
-        <v>400.00000000000006</v>
-      </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1200</v>
-      </c>
-      <c r="E10" s="3">
-        <v>24.999999999999996</v>
-      </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="7">
-        <v>300</v>
-      </c>
-      <c r="E11" s="3">
-        <v>200.00000000000003</v>
-      </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D20" s="10">
+        <v>400000</v>
+      </c>
+      <c r="E20" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9">
+        <v>2</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="7">
-        <v>4500</v>
-      </c>
-      <c r="E12" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="7">
-        <v>4750000</v>
-      </c>
-      <c r="E13" s="3">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="7">
-        <v>25000</v>
-      </c>
-      <c r="E14" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="7">
-        <v>4250000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="7">
-        <v>4750</v>
-      </c>
-      <c r="E16" s="3">
-        <v>10</v>
-      </c>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="7">
-        <v>20000000</v>
-      </c>
-      <c r="E17" s="3">
-        <v>990</v>
-      </c>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="7">
-        <v>4250</v>
-      </c>
-      <c r="E18" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="7">
-        <v>4500000</v>
-      </c>
-      <c r="E19" s="3">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="7">
-        <v>15000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="7">
-        <v>4000000</v>
-      </c>
-      <c r="E21" s="3">
-        <v>9900000</v>
+      <c r="D21" s="10">
+        <v>10000000</v>
+      </c>
+      <c r="E21" s="10">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">

--- a/config_debug/lottery_config_low.xlsx
+++ b/config_debug/lottery_config_low.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3DBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -720,7 +720,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E21"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -947,7 +947,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="10">
-        <v>47500</v>
+        <v>4750</v>
       </c>
       <c r="E12" s="10">
         <v>350000</v>
@@ -1051,7 +1051,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="10">
-        <v>42500</v>
+        <v>4250</v>
       </c>
       <c r="E18" s="10">
         <v>550000</v>

--- a/config_debug/lottery_config_low.xlsx
+++ b/config_debug/lottery_config_low.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="690" activeTab="2"/>
+    <workbookView windowWidth="19380" windowHeight="11055" tabRatio="690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main|幸运抽奖" sheetId="4" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <t>item_num|物品数量</t>
   </si>
   <si>
-    <t>in_kind_name|实物名称</t>
+    <t>in_kind_name</t>
   </si>
   <si>
     <t>weight|权重</t>
@@ -75,10 +75,10 @@
     <t>shop_gold_sum</t>
   </si>
   <si>
+    <t>jing_bi</t>
+  </si>
+  <si>
     <t>华为手机</t>
-  </si>
-  <si>
-    <t>jing_bi</t>
   </si>
 </sst>
 </file>
@@ -86,12 +86,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,56 +107,117 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0B0B0B"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,38 +231,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -210,69 +239,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -302,13 +296,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,169 +458,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,17 +505,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,7 +557,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,6 +577,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -575,192 +602,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,18 +764,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1158,16 +1149,16 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>1</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="10">
-        <v>1</v>
-      </c>
-      <c r="G2" s="10"/>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" ht="26.25" customHeight="1" spans="1:7">
       <c r="A3" s="2">
@@ -1176,39 +1167,39 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>2</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10"/>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" ht="28.5" customHeight="1" spans="3:7">
-      <c r="C4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="7:7">
-      <c r="G5" s="10"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="7:7">
-      <c r="G6" s="10"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="7:7">
-      <c r="G7" s="10"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="7:7">
-      <c r="G8" s="10"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="7:7">
-      <c r="G9" s="10"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="7:7">
-      <c r="G10" s="10"/>
+      <c r="G10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1297,7 +1288,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1313,7 +1304,7 @@
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1326,7 +1317,7 @@
       <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1337,400 +1328,398 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>600</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
         <v>10</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>285</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
         <v>350000</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>2400</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
         <v>10</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>600</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
         <v>10</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>300</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
         <v>99930.0000000002</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>900</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
         <v>10</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>600</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
         <v>10</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>300</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
         <v>10</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>2400</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
         <v>10</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>255</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
         <v>550000</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>2</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="6">
+        <v>4750</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="7">
+      <c r="D13" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6">
+    <row r="14" spans="1:6">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
         <v>2</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="7">
+      <c r="F14" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="6">
+        <v>5000000</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
+        <v>99930.0000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="6">
+        <v>100000</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6">
+        <v>10</v>
+      </c>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="6">
+        <v>100000000</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6">
+        <v>10</v>
+      </c>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="6">
+        <v>4250</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="6">
+        <v>5000000</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="6">
+        <v>400000</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="6">
         <v>10000000</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6">
-        <v>2</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="7">
-        <v>4750</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6">
-        <v>2</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="7">
-        <v>5000000</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7">
-        <v>99930.0000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6">
-        <v>2</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="7">
-        <v>100000</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7">
-        <v>10</v>
-      </c>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6">
-        <v>2</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="7">
-        <v>100000000</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7">
-        <v>10</v>
-      </c>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6">
-        <v>2</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="7">
-        <v>4250</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7">
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6">
-        <v>2</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="7">
-        <v>5000000</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6">
-        <v>2</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="7">
-        <v>400000</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6">
-        <v>2</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="7">
-        <v>10000000</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7">
-        <v>10</v>
-      </c>
-    </row>
     <row r="23" spans="4:5">
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="25" spans="4:5">
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="27" spans="4:5">
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="29" spans="4:5">
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="31" spans="4:5">
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="33" spans="4:5">
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/lottery_config_low.xlsx
+++ b/config_debug/lottery_config_low.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19380" windowHeight="11055" tabRatio="690" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main|幸运抽奖" sheetId="4" r:id="rId1"/>
@@ -75,10 +75,10 @@
     <t>shop_gold_sum</t>
   </si>
   <si>
+    <t>华为手机</t>
+  </si>
+  <si>
     <t>jing_bi</t>
-  </si>
-  <si>
-    <t>华为手机</t>
   </si>
 </sst>
 </file>
@@ -86,12 +86,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,81 +114,85 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,63 +204,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,61 +289,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,31 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,85 +463,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,11 +498,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,73 +590,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,152 +600,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1288,7 +1281,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1524,15 +1517,13 @@
       <c r="B12" s="5">
         <v>2</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="6">
-        <v>4750</v>
-      </c>
-      <c r="E12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="F12" s="6">
-        <v>350000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1543,7 +1534,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="6">
         <v>10000000</v>
@@ -1560,13 +1551,15 @@
       <c r="B14" s="5">
         <v>2</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="C14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="6">
+        <v>4750</v>
+      </c>
+      <c r="E14" s="6"/>
       <c r="F14" s="6">
-        <v>10</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1577,7 +1570,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" s="6">
         <v>5000000</v>
@@ -1614,7 +1607,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="6">
         <v>100000000</v>
@@ -1651,7 +1644,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" s="6">
         <v>5000000</v>
@@ -1687,7 +1680,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="6">
         <v>10000000</v>
@@ -1701,9 +1694,12 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="25" spans="4:5">
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+    <row r="25" spans="2:6">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="27" spans="4:5">
       <c r="D27" s="7"/>

--- a/config_debug/lottery_config_low.xlsx
+++ b/config_debug/lottery_config_low.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -106,12 +106,14 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -119,17 +121,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -679,7 +684,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1005,10 +1010,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="6">
-        <v>100000000</v>
+        <v>1</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6">
@@ -1078,10 +1083,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="6">
-        <v>1</v>
+        <v>10000000</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6">
